--- a/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.6829767138364</v>
+        <v>16.27395536621195</v>
       </c>
       <c r="D2" t="n">
         <v>0.00301823225217215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008574046394687406</v>
+        <v>0.006275575909959944</v>
       </c>
       <c r="F2" t="n">
-        <v>2.589943655530319</v>
+        <v>40.17361422455784</v>
       </c>
       <c r="G2" t="n">
-        <v>2.316157728715575</v>
+        <v>3.023936917708523</v>
       </c>
       <c r="H2" t="n">
-        <v>3.104228795007172</v>
+        <v>113.2997885567166</v>
       </c>
       <c r="I2" t="n">
-        <v>3.209441924988149</v>
+        <v>4.26388169043677</v>
       </c>
       <c r="J2" t="n">
-        <v>3.174493396257813</v>
+        <v>4.262498394416682</v>
       </c>
       <c r="K2" t="n">
-        <v>3.245507909350298</v>
+        <v>4.265849736929503</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1772787519355523</v>
+        <v>0.2394993062799019</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1695599855855993</v>
+        <v>0.2324654891153624</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1864070779398215</v>
+        <v>0.2533026716387036</v>
       </c>
     </row>
     <row r="3">
@@ -557,40 +557,86 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3589057188001392</v>
+        <v>0.3589057182506037</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3038166774373344</v>
+        <v>0.3038166771491592</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3557873749964925</v>
+        <v>0.3557873748505794</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2249159421655448</v>
+        <v>0.2496598256557464</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2229046084363905</v>
+        <v>0.2494293762464635</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2277491573447097</v>
+        <v>0.2498902723954897</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2007178338247571</v>
+        <v>0.2235333391462987</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1995171824261058</v>
+        <v>0.2233209996341272</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2020261494881598</v>
+        <v>0.2237438655223813</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2221069461388316</v>
+        <v>0.2472455819478694</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2209367643544982</v>
+        <v>0.2470166395069133</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2232716106792402</v>
+        <v>0.2474746485431898</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16.63286108446255</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3068349094013313</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3620629507605393</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40.42327405021359</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.273366293954987</v>
+      </c>
+      <c r="H4" t="n">
+        <v>113.549678829112</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.487415029583068</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.48581939405081</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.489593602451884</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4867448882277714</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.4794821286222757</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5007773201818935</v>
       </c>
     </row>
   </sheetData>

--- a/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.006275575909959944</v>
       </c>
       <c r="F2" t="n">
-        <v>39.28767746684056</v>
+        <v>39.27143501396318</v>
       </c>
       <c r="G2" t="n">
-        <v>2.998539415772146</v>
+        <v>3.000336175386721</v>
       </c>
       <c r="H2" t="n">
-        <v>113.6871167145012</v>
+        <v>112.5454926273685</v>
       </c>
       <c r="I2" t="n">
-        <v>4.263884751029461</v>
+        <v>4.263868887090577</v>
       </c>
       <c r="J2" t="n">
-        <v>4.262481134184386</v>
+        <v>4.262443736231989</v>
       </c>
       <c r="K2" t="n">
-        <v>4.265806727688049</v>
+        <v>4.265761030084986</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2393478687223665</v>
+        <v>0.2393417146442213</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2324585854434172</v>
+        <v>0.2324561146610944</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2533616659594796</v>
+        <v>0.2531750388970516</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.3557873748505794</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2496612180394717</v>
+        <v>0.2496588112822442</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2494300974030475</v>
+        <v>0.2494438598988644</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2498936233963053</v>
+        <v>0.2498914445169295</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2235346586631963</v>
+        <v>0.2235324113426677</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2233217234018368</v>
+        <v>0.2233345540825502</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2237470116018676</v>
+        <v>0.2237450427264582</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2472469637328162</v>
+        <v>0.2472445740366078</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2470173581467048</v>
+        <v>0.2470310257008661</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2474779716750946</v>
+        <v>0.247475808417009</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.3620629507605393</v>
       </c>
       <c r="F4" t="n">
-        <v>39.53733868488003</v>
+        <v>39.52109382524542</v>
       </c>
       <c r="G4" t="n">
-        <v>3.247969513175194</v>
+        <v>3.249780035285586</v>
       </c>
       <c r="H4" t="n">
-        <v>113.9370103378975</v>
+        <v>112.7953840718854</v>
       </c>
       <c r="I4" t="n">
-        <v>4.487419409692658</v>
+        <v>4.487401298433246</v>
       </c>
       <c r="J4" t="n">
-        <v>4.485802857586223</v>
+        <v>4.485778290314539</v>
       </c>
       <c r="K4" t="n">
-        <v>4.489553739289916</v>
+        <v>4.489506072811445</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4865948324551826</v>
+        <v>0.486586288680829</v>
       </c>
       <c r="M4" t="n">
-        <v>0.479475943590122</v>
+        <v>0.4794871403619605</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5008396376345742</v>
+        <v>0.5006508473140605</v>
       </c>
     </row>
   </sheetData>
